--- a/dataProducts/GPTAnalysisOn2295.xlsx
+++ b/dataProducts/GPTAnalysisOn2295.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://curtin-my.sharepoint.com/personal/290099c_curtin_edu_au/Documents/Documents/Android Meus Documentos/PhD/FINAL THESIS/THESIS CODES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://curtin-my.sharepoint.com/personal/290099c_curtin_edu_au/Documents/Documents/Android Meus Documentos/PhD/THIRD PAPER - JDIQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="11_839E167F5BDFE5C3713669200FB2227B24C34089" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92753A0D-EED9-495F-83AA-46D025D4DAFF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B6B665A-D125-4EFE-8967-022B97D5DFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20745" windowHeight="13290" tabRatio="953" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-3285" windowWidth="29040" windowHeight="15840" tabRatio="953" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalSummary" sheetId="1" r:id="rId1"/>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3942,7 +3942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>

--- a/dataProducts/GPTAnalysisOn2295.xlsx
+++ b/dataProducts/GPTAnalysisOn2295.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{5B6B665A-D125-4EFE-8967-022B97D5DFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-3285" windowWidth="29040" windowHeight="15840" tabRatio="953" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-6195" windowWidth="29040" windowHeight="15840" tabRatio="953" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalSummary" sheetId="1" r:id="rId1"/>
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1189,7 +1189,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L33" sqref="L32:L33"/>
     </sheetView>
   </sheetViews>
@@ -2811,7 +2811,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -4932,7 +4932,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5334,7 +5334,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D21"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
